--- a/Processed PO Numbers.xlsx
+++ b/Processed PO Numbers.xlsx
@@ -175,6 +175,30 @@
   </x:si>
   <x:si>
     <x:t>SO-00022056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275307(0108062)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293184(0108860)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182937(0107060)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421677(0109160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022067</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -770,6 +794,50 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:autoFilter ref="A1:A12"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Processed PO Numbers.xlsx
+++ b/Processed PO Numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DDl_Automation2\Documents\UiPath\(Task 37) Harvey Norman Order processing Automation\Harvey Norman Order Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DigitalDoorLocks-Aut\Documents\UiPath\(Task 37) Harvey Norman Order processing Automation\Harvey Norman Order Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC57068-D0F8-48A6-B696-415559C3CCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14326EE8-5F92-4FD6-AF90-895A162E60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="3510" yWindow="3510" windowWidth="23040" windowHeight="12105" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,94 +111,88 @@
     <x:t>SO-00022027</x:t>
   </x:si>
   <x:si>
-    <x:t>246060(0105460)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022046</x:t>
-  </x:si>
-  <x:si>
     <x:t>943397(133725)</x:t>
   </x:si>
   <x:si>
     <x:t>SO-00022047</x:t>
   </x:si>
   <x:si>
-    <x:t>498682(0102060)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>343056(0105660)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022049</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146111(0120760)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6580(0128860)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>433416(0107560)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201206(0119460)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196495(0163760)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>322682(0102960)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142011(0117560)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022056</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275307(0108062)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293184(0108860)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182937(0107060)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SO-00022066</x:t>
-  </x:si>
-  <x:si>
     <x:t>421677(0109160)</x:t>
   </x:si>
   <x:si>
     <x:t>SO-00022067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218328(0114360)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>350683(0116760)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14917(0127860)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>343338(0105660)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215102(0120660)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>368154(0102160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>499150(0102060)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247034(0113860)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>309992(0112860)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266051(0109760)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196927(0163760)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293319(0108860)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022135</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -528,20 +522,20 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C5"/>
+  <x:dimension ref="A1:C22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B12" sqref="B12"/>
+      <x:selection activeCell="F19" sqref="F19"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.441406" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="11.886719" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="7.21875" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="16.425781" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="11.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="7.285156" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -552,7 +546,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -563,7 +557,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -574,7 +568,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -585,7 +579,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -596,7 +590,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3">
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -607,7 +601,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:3">
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
@@ -618,7 +612,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:3">
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
@@ -629,7 +623,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:3">
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
@@ -640,7 +634,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -651,7 +645,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:3">
+    <x:row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -662,7 +656,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:3">
+    <x:row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -673,7 +667,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:3">
+    <x:row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -681,10 +675,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -695,7 +689,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:3">
+    <x:row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -703,10 +697,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -714,10 +708,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -725,10 +719,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -736,10 +730,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
@@ -747,10 +741,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -761,7 +755,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:3">
+    <x:row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -772,7 +766,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:3">
+    <x:row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -824,17 +818,6 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
@@ -842,7 +825,7 @@
   <x:autoFilter ref="A1:A12"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Processed PO Numbers.xlsx
+++ b/Processed PO Numbers.xlsx
@@ -193,6 +193,72 @@
   </x:si>
   <x:si>
     <x:t>SO-00022135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101865(0120860)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77218(0119760)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>421818(109260)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60317(0125160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>308312(0104460)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>358566(0106160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>499485(0102060)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281788(0104060)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>449581(0102860)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215931(0115960)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>434129(0107560)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022207</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -752,7 +818,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +829,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +840,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -785,7 +851,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -796,7 +862,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -807,7 +873,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -818,6 +884,127 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>

--- a/Processed PO Numbers.xlsx
+++ b/Processed PO Numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DigitalDoorLocks-Aut\Documents\UiPath\(Task 37) Harvey Norman Order processing Automation\Harvey Norman Order Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14326EE8-5F92-4FD6-AF90-895A162E60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA930D7-A9EC-405F-9476-49E0DFC1D8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3510" yWindow="3510" windowWidth="23040" windowHeight="12105" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,6 +259,18 @@
   </x:si>
   <x:si>
     <x:t>SO-00022207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215536(0120660)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>359019(0106160)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SO-00022266</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -588,10 +600,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C22"/>
+  <x:dimension ref="A1:C38"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F19" sqref="F19"/>
+      <x:selection activeCell="I29" sqref="I29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +855,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:3">
+    <x:row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -854,7 +866,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:3">
+    <x:row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -865,7 +877,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:3">
+    <x:row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -876,7 +888,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:3">
+    <x:row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
@@ -887,7 +899,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:3">
+    <x:row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -898,7 +910,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:3">
+    <x:row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
@@ -909,7 +921,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:3">
+    <x:row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
@@ -920,7 +932,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:3">
+    <x:row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -931,7 +943,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:3">
+    <x:row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
@@ -942,7 +954,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:3">
+    <x:row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -953,7 +965,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:3">
+    <x:row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -961,10 +973,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -972,10 +984,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
@@ -983,10 +995,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -994,10 +1006,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:3">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
@@ -1005,6 +1017,28 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A38" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
